--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishak.raman\Documents\Notes\custommodule\customcreate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6215D6-7C52-4873-B535-8A98E9BCD054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +24,111 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Sl No</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create Custom form with the below fields
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name
+Age
+Email
+Gender (Radio)
+Work Type (Select List)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IT
+BPO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Are you sure? (checkbox)
+Submit Button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*With proper validations
+* Add this form in a custom block
+* Anonymous user should also view this form
+*Should be support both drupal 8 and 9
+* Form values should be stored in db
+* Create a controller and view those submitted values in /values
+* The value page should be viewed only by the admin
+*Coding Standard and add proper comments</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +440,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="267" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44487</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishak.raman\Documents\Notes\custommodule\customcreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6215D6-7C52-4873-B535-8A98E9BCD054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE8ED9D-DF1F-415E-999A-9ACF8C90216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -37,7 +37,29 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Create Custom form with the below fields
+      <t xml:space="preserve">Create Custom module named </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">student_entry
+Create a custom form </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the below fields
 </t>
     </r>
     <r>
@@ -103,12 +125,15 @@
 *Coding Standard and add proper comments</t>
     </r>
   </si>
+  <si>
+    <t>Completion Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +154,14 @@
       <b/>
       <i/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -441,19 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -463,8 +497,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="267" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="282" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,6 +510,9 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44488</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishak.raman\Documents\Notes\custommodule\customcreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE8ED9D-DF1F-415E-999A-9ACF8C90216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B3A98-5B07-489B-A2D5-A2F236E48E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,91 @@
   </si>
   <si>
     <t>Completion Date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create a custom </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> form with below fields</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Title (Textfield)
+Start Date (Date)
+End Date (Date)
+Venue (Textfield)
+Description (Textarea)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>custom entity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the above fields
+2. Configuration form values should be saved in custom entity’s contents
+3. Create list view and CRUD operations (Create, Edit, Delete, Multiple Delete - Bulk Operation) of the above custom entity’s contents.
+Create a PHP Unit  Testcase of the above functionality.
+Note: Basic validation of form should be rendered.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -188,10 +273,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,16 +562,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="96" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -501,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="282" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,6 +601,20 @@
       </c>
       <c r="D2" s="1">
         <v>44488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44488</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44490</v>
       </c>
     </row>
   </sheetData>
